--- a/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/reservations_coach.xlsx
+++ b/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/reservations_coach.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nom du Service</t>
   </si>
@@ -20,25 +20,34 @@
     <t>Nombre de Clients</t>
   </si>
   <si>
-    <t>Mensuel</t>
+    <t>Yoga Débutant</t>
   </si>
   <si>
-    <t>Annuel Premium</t>
+    <t>yoga</t>
   </si>
   <si>
-    <t>natationlover</t>
+    <t>YOGAPLUS</t>
   </si>
   <si>
-    <t>trimestrielle+</t>
+    <t>pilate</t>
   </si>
   <si>
-    <t>love</t>
+    <t>pilatePLUS</t>
   </si>
   <si>
-    <t>COUPLES</t>
+    <t>musculationplus</t>
   </si>
   <si>
-    <t>Abonnement Basic</t>
+    <t>fitnesspro</t>
+  </si>
+  <si>
+    <t>LOVER</t>
+  </si>
+  <si>
+    <t>ELLA</t>
+  </si>
+  <si>
+    <t>EMMA</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -118,7 +127,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -126,7 +135,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -134,12 +143,12 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>0.0</v>
@@ -147,7 +156,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>7.0</v>
@@ -155,10 +164,26 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>0.0</v>
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
